--- a/analysis/mails_01/P08_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">25/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-25</t>
   </si>
   <si>
     <t xml:space="preserve">56.9832</t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">MFD03302</t>
   </si>
   <si>
-    <t xml:space="preserve">02/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-02</t>
   </si>
   <si>
     <t xml:space="preserve">56.9751</t>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">MFD03303</t>
   </si>
   <si>
-    <t xml:space="preserve">23/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-23</t>
   </si>
   <si>
     <t xml:space="preserve">56.9175</t>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">MFD03304</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-13</t>
   </si>
   <si>
     <t xml:space="preserve">57.1859</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">MFD03305</t>
   </si>
   <si>
-    <t xml:space="preserve">07/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-07</t>
   </si>
   <si>
     <t xml:space="preserve">56.2434</t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">MFD03306</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-11</t>
   </si>
   <si>
     <t xml:space="preserve">56.9718</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">MFD03307</t>
   </si>
   <si>
-    <t xml:space="preserve">18/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-18</t>
   </si>
   <si>
     <t xml:space="preserve">56.4588</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">MFD03309</t>
   </si>
   <si>
-    <t xml:space="preserve">09/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-09</t>
   </si>
   <si>
     <t xml:space="preserve">57.1291</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">MFD03313</t>
   </si>
   <si>
-    <t xml:space="preserve">15/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-15</t>
   </si>
   <si>
     <t xml:space="preserve">57.0672</t>
@@ -285,7 +285,7 @@
     <t xml:space="preserve">MFD03317</t>
   </si>
   <si>
-    <t xml:space="preserve">16/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-16</t>
   </si>
   <si>
     <t xml:space="preserve">56.904</t>
@@ -315,7 +315,7 @@
     <t xml:space="preserve">MFD03320</t>
   </si>
   <si>
-    <t xml:space="preserve">27/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-27</t>
   </si>
   <si>
     <t xml:space="preserve">57.1701</t>
@@ -390,7 +390,7 @@
     <t xml:space="preserve">MFD03328</t>
   </si>
   <si>
-    <t xml:space="preserve">21/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-21</t>
   </si>
   <si>
     <t xml:space="preserve">56.8283</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">MFD03331</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.265</t>
@@ -441,7 +441,7 @@
     <t xml:space="preserve">MFD03333</t>
   </si>
   <si>
-    <t xml:space="preserve">03/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.9003</t>
@@ -573,7 +573,7 @@
     <t xml:space="preserve">MFD03348</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-17</t>
   </si>
   <si>
     <t xml:space="preserve">56.305</t>
@@ -603,7 +603,7 @@
     <t xml:space="preserve">MFD03351</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2020 12:15</t>
+    <t xml:space="preserve">2020-09-20</t>
   </si>
   <si>
     <t xml:space="preserve">56.3148</t>
@@ -615,9 +615,6 @@
     <t xml:space="preserve">MFD03352</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2020 11:39</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3146</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t xml:space="preserve">MFD03353</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2020 11:01</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3141</t>
   </si>
   <si>
@@ -666,7 +660,7 @@
     <t xml:space="preserve">MFD03357</t>
   </si>
   <si>
-    <t xml:space="preserve">05/10/2020 15:20</t>
+    <t xml:space="preserve">2020-10-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.3069</t>
@@ -696,9 +690,6 @@
     <t xml:space="preserve">MFD03360</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 14:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.3987</t>
   </si>
   <si>
@@ -708,9 +699,6 @@
     <t xml:space="preserve">MFD03361</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 13:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.3842</t>
   </si>
   <si>
@@ -720,9 +708,6 @@
     <t xml:space="preserve">MFD03362</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 13:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.3838</t>
   </si>
   <si>
@@ -732,9 +717,6 @@
     <t xml:space="preserve">MFD03363</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 10:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.4341</t>
   </si>
   <si>
@@ -744,18 +726,12 @@
     <t xml:space="preserve">MFD03364</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 10:07</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.4097</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03365</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2020 09:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.4343</t>
   </si>
   <si>
@@ -765,7 +741,7 @@
     <t xml:space="preserve">MFD03382</t>
   </si>
   <si>
-    <t xml:space="preserve">06/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-06</t>
   </si>
   <si>
     <t xml:space="preserve">56.9034</t>
@@ -795,7 +771,7 @@
     <t xml:space="preserve">MFD03388</t>
   </si>
   <si>
-    <t xml:space="preserve">30/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-30</t>
   </si>
   <si>
     <t xml:space="preserve">56.3896</t>
@@ -834,7 +810,7 @@
     <t xml:space="preserve">MFD03392</t>
   </si>
   <si>
-    <t xml:space="preserve">05/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.5995</t>
@@ -915,7 +891,7 @@
     <t xml:space="preserve">MFD03401</t>
   </si>
   <si>
-    <t xml:space="preserve">20/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-20</t>
   </si>
   <si>
     <t xml:space="preserve">9.8914</t>
@@ -942,7 +918,7 @@
     <t xml:space="preserve">MFD03404</t>
   </si>
   <si>
-    <t xml:space="preserve">29/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-29</t>
   </si>
   <si>
     <t xml:space="preserve">56.641</t>
@@ -954,7 +930,7 @@
     <t xml:space="preserve">MFD03405</t>
   </si>
   <si>
-    <t xml:space="preserve">13/09/2020 08:54</t>
+    <t xml:space="preserve">2020-09-13</t>
   </si>
   <si>
     <t xml:space="preserve">56.2148</t>
@@ -966,9 +942,6 @@
     <t xml:space="preserve">MFD03406</t>
   </si>
   <si>
-    <t xml:space="preserve">13/09/2020 07:51</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2149</t>
   </si>
   <si>
@@ -978,9 +951,6 @@
     <t xml:space="preserve">MFD03407</t>
   </si>
   <si>
-    <t xml:space="preserve">13/09/2020 06:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2147</t>
   </si>
   <si>
@@ -1098,7 +1068,7 @@
     <t xml:space="preserve">MFD03422</t>
   </si>
   <si>
-    <t xml:space="preserve">12/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-12</t>
   </si>
   <si>
     <t xml:space="preserve">9.8327</t>
@@ -1107,9 +1077,6 @@
     <t xml:space="preserve">MFD03432</t>
   </si>
   <si>
-    <t xml:space="preserve">20/09/2020 00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.9796</t>
   </si>
   <si>
@@ -1119,7 +1086,7 @@
     <t xml:space="preserve">MFD03435</t>
   </si>
   <si>
-    <t xml:space="preserve">16/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-16</t>
   </si>
   <si>
     <t xml:space="preserve">56.9274</t>
@@ -1131,7 +1098,7 @@
     <t xml:space="preserve">MFD03438</t>
   </si>
   <si>
-    <t xml:space="preserve">14/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-14</t>
   </si>
   <si>
     <t xml:space="preserve">56.7335</t>
@@ -3771,13 +3738,13 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" t="s">
         <v>200</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>201</v>
-      </c>
-      <c r="E53" t="s">
-        <v>202</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -3807,19 +3774,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" t="s">
         <v>203</v>
       </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>204</v>
-      </c>
-      <c r="D54" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" t="s">
-        <v>206</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -3849,7 +3816,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -3858,10 +3825,10 @@
         <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
@@ -3891,7 +3858,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -3900,10 +3867,10 @@
         <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -3933,7 +3900,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -3942,10 +3909,10 @@
         <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -3975,19 +3942,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" t="s">
         <v>216</v>
       </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>217</v>
-      </c>
-      <c r="D58" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" t="s">
-        <v>219</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -4017,19 +3984,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" t="s">
         <v>220</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>217</v>
-      </c>
-      <c r="D59" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" t="s">
-        <v>222</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -4059,19 +4026,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" t="s">
         <v>223</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>217</v>
-      </c>
-      <c r="D60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E60" t="s">
-        <v>225</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4101,19 +4068,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" t="s">
         <v>226</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>227</v>
-      </c>
-      <c r="D61" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" t="s">
-        <v>229</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -4143,19 +4110,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -4185,19 +4152,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -4227,19 +4194,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -4269,19 +4236,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -4311,19 +4278,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -4353,19 +4320,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E67" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -4395,19 +4362,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -4437,19 +4404,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" t="s">
         <v>250</v>
-      </c>
-      <c r="D69" t="s">
-        <v>257</v>
-      </c>
-      <c r="E69" t="s">
-        <v>258</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -4479,19 +4446,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E70" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -4521,19 +4488,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4563,19 +4530,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E72" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -4605,19 +4572,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -4647,19 +4614,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E74" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -4689,19 +4656,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -4731,19 +4698,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" t="s">
+        <v>272</v>
+      </c>
+      <c r="E76" t="s">
         <v>273</v>
-      </c>
-      <c r="D76" t="s">
-        <v>280</v>
-      </c>
-      <c r="E76" t="s">
-        <v>281</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -4773,19 +4740,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -4815,19 +4782,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E78" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -4857,19 +4824,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -4899,7 +4866,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -4908,10 +4875,10 @@
         <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -4941,7 +4908,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -4950,10 +4917,10 @@
         <v>77</v>
       </c>
       <c r="D81" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -4983,7 +4950,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -4992,10 +4959,10 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E82" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -5025,19 +4992,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
         <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -5067,19 +5034,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D84" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -5109,19 +5076,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -5151,19 +5118,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -5193,19 +5160,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -5235,19 +5202,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D88" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E88" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5277,19 +5244,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D89" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -5319,19 +5286,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E90" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -5361,19 +5328,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D91" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -5403,19 +5370,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D92" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E92" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -5445,19 +5412,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D93" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E93" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -5487,7 +5454,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -5496,10 +5463,10 @@
         <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E94" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -5529,7 +5496,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -5538,10 +5505,10 @@
         <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E95" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -5571,7 +5538,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -5580,10 +5547,10 @@
         <v>125</v>
       </c>
       <c r="D96" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E96" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -5613,7 +5580,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -5622,10 +5589,10 @@
         <v>125</v>
       </c>
       <c r="D97" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E97" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -5655,7 +5622,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -5664,10 +5631,10 @@
         <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E98" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -5697,7 +5664,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -5706,10 +5673,10 @@
         <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E99" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -5739,7 +5706,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -5748,10 +5715,10 @@
         <v>77</v>
       </c>
       <c r="D100" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E100" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -5781,7 +5748,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -5790,10 +5757,10 @@
         <v>77</v>
       </c>
       <c r="D101" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E101" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -5823,19 +5790,19 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D102" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E102" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -5865,19 +5832,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="D103" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E103" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -5907,19 +5874,19 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E104" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -5949,19 +5916,19 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D105" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E105" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -5991,19 +5958,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="D106" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E106" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -6033,19 +6000,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D107" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E107" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -6075,19 +6042,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E108" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -6117,19 +6084,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E109" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -6159,19 +6126,19 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="D110" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E110" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -6215,10 +6182,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
@@ -6226,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -6234,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4">
@@ -6242,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
@@ -6250,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -6258,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
@@ -6266,7 +6233,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
@@ -6274,7 +6241,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
@@ -6282,7 +6249,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
@@ -6290,7 +6257,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
@@ -6298,7 +6265,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12">
@@ -6306,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
@@ -6314,7 +6281,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14">
@@ -6322,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15">
@@ -6330,7 +6297,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -658,9 +658,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD03357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-05</t>
   </si>
   <si>
     <t xml:space="preserve">56.3069</t>
@@ -3948,13 +3945,13 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" t="s">
         <v>215</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>216</v>
-      </c>
-      <c r="E58" t="s">
-        <v>217</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
@@ -3984,19 +3981,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
         <v>218</v>
       </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>219</v>
-      </c>
-      <c r="E59" t="s">
-        <v>220</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
@@ -4026,19 +4023,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" t="s">
         <v>221</v>
       </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>222</v>
-      </c>
-      <c r="E60" t="s">
-        <v>223</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
@@ -4068,7 +4065,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -4077,10 +4074,10 @@
         <v>186</v>
       </c>
       <c r="D61" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" t="s">
         <v>225</v>
-      </c>
-      <c r="E61" t="s">
-        <v>226</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
@@ -4110,7 +4107,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -4119,10 +4116,10 @@
         <v>186</v>
       </c>
       <c r="D62" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" t="s">
         <v>228</v>
-      </c>
-      <c r="E62" t="s">
-        <v>229</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
@@ -4152,7 +4149,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -4161,10 +4158,10 @@
         <v>186</v>
       </c>
       <c r="D63" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" t="s">
         <v>231</v>
-      </c>
-      <c r="E63" t="s">
-        <v>232</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -4194,7 +4191,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -4203,10 +4200,10 @@
         <v>186</v>
       </c>
       <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
         <v>234</v>
-      </c>
-      <c r="E64" t="s">
-        <v>235</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -4236,7 +4233,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -4245,10 +4242,10 @@
         <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
@@ -4278,7 +4275,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -4287,10 +4284,10 @@
         <v>186</v>
       </c>
       <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" t="s">
         <v>239</v>
-      </c>
-      <c r="E66" t="s">
-        <v>240</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -4320,19 +4317,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
         <v>241</v>
       </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>242</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>243</v>
-      </c>
-      <c r="E67" t="s">
-        <v>244</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -4362,19 +4359,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" t="s">
         <v>245</v>
       </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>246</v>
-      </c>
-      <c r="E68" t="s">
-        <v>247</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
@@ -4404,19 +4401,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" t="s">
         <v>248</v>
       </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
-        <v>242</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>249</v>
-      </c>
-      <c r="E69" t="s">
-        <v>250</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
@@ -4446,19 +4443,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
         <v>251</v>
       </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>252</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>253</v>
-      </c>
-      <c r="E70" t="s">
-        <v>254</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -4488,19 +4485,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" t="s">
         <v>255</v>
       </c>
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>256</v>
-      </c>
-      <c r="E71" t="s">
-        <v>257</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4530,19 +4527,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" t="s">
         <v>258</v>
       </c>
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>242</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>259</v>
-      </c>
-      <c r="E72" t="s">
-        <v>260</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -4572,19 +4569,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D73" t="s">
         <v>261</v>
       </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>262</v>
-      </c>
-      <c r="E73" t="s">
-        <v>263</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -4614,19 +4611,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
         <v>264</v>
       </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>265</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>266</v>
-      </c>
-      <c r="E74" t="s">
-        <v>267</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -4656,19 +4653,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>264</v>
+      </c>
+      <c r="D75" t="s">
         <v>268</v>
       </c>
-      <c r="B75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" t="s">
-        <v>265</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>269</v>
-      </c>
-      <c r="E75" t="s">
-        <v>270</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -4698,19 +4695,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
         <v>271</v>
       </c>
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" t="s">
-        <v>265</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>272</v>
-      </c>
-      <c r="E76" t="s">
-        <v>273</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -4740,19 +4737,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>273</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77" t="s">
         <v>274</v>
       </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" t="s">
-        <v>242</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>275</v>
-      </c>
-      <c r="E77" t="s">
-        <v>276</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -4782,19 +4779,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" t="s">
         <v>277</v>
       </c>
-      <c r="B78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" t="s">
-        <v>242</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>278</v>
-      </c>
-      <c r="E78" t="s">
-        <v>279</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -4824,19 +4821,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" t="s">
         <v>280</v>
       </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>281</v>
-      </c>
-      <c r="E79" t="s">
-        <v>282</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -4866,7 +4863,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -4875,10 +4872,10 @@
         <v>77</v>
       </c>
       <c r="D80" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" t="s">
         <v>284</v>
-      </c>
-      <c r="E80" t="s">
-        <v>285</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -4908,7 +4905,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -4917,10 +4914,10 @@
         <v>77</v>
       </c>
       <c r="D81" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" t="s">
         <v>287</v>
-      </c>
-      <c r="E81" t="s">
-        <v>288</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -4959,10 +4956,10 @@
         <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -4992,19 +4989,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
         <v>291</v>
-      </c>
-      <c r="B83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" t="s">
-        <v>292</v>
       </c>
       <c r="D83" t="s">
         <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -5034,19 +5031,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>293</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>291</v>
+      </c>
+      <c r="D84" t="s">
         <v>294</v>
       </c>
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>292</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>295</v>
-      </c>
-      <c r="E84" t="s">
-        <v>296</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -5076,19 +5073,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>291</v>
+      </c>
+      <c r="D85" t="s">
         <v>297</v>
       </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
-        <v>292</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>298</v>
-      </c>
-      <c r="E85" t="s">
-        <v>299</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -5118,19 +5115,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
         <v>300</v>
       </c>
-      <c r="B86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>301</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>302</v>
-      </c>
-      <c r="E86" t="s">
-        <v>303</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -5160,19 +5157,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
         <v>304</v>
       </c>
-      <c r="B87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>305</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>306</v>
-      </c>
-      <c r="E87" t="s">
-        <v>307</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -5202,19 +5199,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>307</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
         <v>308</v>
       </c>
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" t="s">
-        <v>305</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>309</v>
-      </c>
-      <c r="E88" t="s">
-        <v>310</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -5244,19 +5241,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" t="s">
         <v>311</v>
       </c>
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" t="s">
-        <v>305</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>312</v>
-      </c>
-      <c r="E89" t="s">
-        <v>313</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -5286,19 +5283,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" t="s">
         <v>314</v>
       </c>
-      <c r="B90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>315</v>
-      </c>
-      <c r="E90" t="s">
-        <v>316</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -5328,19 +5325,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" t="s">
         <v>317</v>
       </c>
-      <c r="B91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>318</v>
-      </c>
-      <c r="E91" t="s">
-        <v>319</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -5370,19 +5367,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>319</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>300</v>
+      </c>
+      <c r="D92" t="s">
         <v>320</v>
       </c>
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" t="s">
-        <v>301</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>321</v>
-      </c>
-      <c r="E92" t="s">
-        <v>322</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -5412,19 +5409,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>322</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" t="s">
         <v>323</v>
       </c>
-      <c r="B93" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" t="s">
-        <v>301</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>324</v>
-      </c>
-      <c r="E93" t="s">
-        <v>325</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -5454,7 +5451,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -5463,10 +5460,10 @@
         <v>125</v>
       </c>
       <c r="D94" t="s">
+        <v>326</v>
+      </c>
+      <c r="E94" t="s">
         <v>327</v>
-      </c>
-      <c r="E94" t="s">
-        <v>328</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -5496,7 +5493,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -5505,10 +5502,10 @@
         <v>125</v>
       </c>
       <c r="D95" t="s">
+        <v>329</v>
+      </c>
+      <c r="E95" t="s">
         <v>330</v>
-      </c>
-      <c r="E95" t="s">
-        <v>331</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -5538,7 +5535,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -5547,10 +5544,10 @@
         <v>125</v>
       </c>
       <c r="D96" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" t="s">
         <v>333</v>
-      </c>
-      <c r="E96" t="s">
-        <v>334</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -5580,7 +5577,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -5589,10 +5586,10 @@
         <v>125</v>
       </c>
       <c r="D97" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" t="s">
         <v>336</v>
-      </c>
-      <c r="E97" t="s">
-        <v>337</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -5622,7 +5619,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -5631,10 +5628,10 @@
         <v>125</v>
       </c>
       <c r="D98" t="s">
+        <v>338</v>
+      </c>
+      <c r="E98" t="s">
         <v>339</v>
-      </c>
-      <c r="E98" t="s">
-        <v>340</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -5664,7 +5661,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -5673,10 +5670,10 @@
         <v>125</v>
       </c>
       <c r="D99" t="s">
+        <v>341</v>
+      </c>
+      <c r="E99" t="s">
         <v>342</v>
-      </c>
-      <c r="E99" t="s">
-        <v>343</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -5706,7 +5703,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -5715,10 +5712,10 @@
         <v>77</v>
       </c>
       <c r="D100" t="s">
+        <v>344</v>
+      </c>
+      <c r="E100" t="s">
         <v>345</v>
-      </c>
-      <c r="E100" t="s">
-        <v>346</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
@@ -5748,7 +5745,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -5757,10 +5754,10 @@
         <v>77</v>
       </c>
       <c r="D101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E101" t="s">
         <v>348</v>
-      </c>
-      <c r="E101" t="s">
-        <v>349</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -5790,19 +5787,19 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
         <v>350</v>
       </c>
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>347</v>
+      </c>
+      <c r="E102" t="s">
         <v>351</v>
-      </c>
-      <c r="D102" t="s">
-        <v>348</v>
-      </c>
-      <c r="E102" t="s">
-        <v>352</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -5832,7 +5829,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
@@ -5841,10 +5838,10 @@
         <v>196</v>
       </c>
       <c r="D103" t="s">
+        <v>353</v>
+      </c>
+      <c r="E103" t="s">
         <v>354</v>
-      </c>
-      <c r="E103" t="s">
-        <v>355</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -5874,19 +5871,19 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>355</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
         <v>356</v>
       </c>
-      <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>357</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>358</v>
-      </c>
-      <c r="E104" t="s">
-        <v>359</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -5916,19 +5913,19 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>359</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
         <v>360</v>
       </c>
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>361</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>362</v>
-      </c>
-      <c r="E105" t="s">
-        <v>363</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -5958,7 +5955,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -5967,10 +5964,10 @@
         <v>196</v>
       </c>
       <c r="D106" t="s">
+        <v>364</v>
+      </c>
+      <c r="E106" t="s">
         <v>365</v>
-      </c>
-      <c r="E106" t="s">
-        <v>366</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -6000,19 +5997,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>366</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>360</v>
+      </c>
+      <c r="D107" t="s">
         <v>367</v>
       </c>
-      <c r="B107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" t="s">
-        <v>361</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>368</v>
-      </c>
-      <c r="E107" t="s">
-        <v>369</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -6042,19 +6039,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>369</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>356</v>
+      </c>
+      <c r="D108" t="s">
         <v>370</v>
       </c>
-      <c r="B108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" t="s">
-        <v>357</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>371</v>
-      </c>
-      <c r="E108" t="s">
-        <v>372</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -6084,19 +6081,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>372</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>356</v>
+      </c>
+      <c r="D109" t="s">
+        <v>357</v>
+      </c>
+      <c r="E109" t="s">
         <v>373</v>
-      </c>
-      <c r="B109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" t="s">
-        <v>357</v>
-      </c>
-      <c r="D109" t="s">
-        <v>358</v>
-      </c>
-      <c r="E109" t="s">
-        <v>374</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -6126,7 +6123,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -6135,10 +6132,10 @@
         <v>196</v>
       </c>
       <c r="D110" t="s">
+        <v>375</v>
+      </c>
+      <c r="E110" t="s">
         <v>376</v>
-      </c>
-      <c r="E110" t="s">
-        <v>377</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -6182,10 +6179,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2">
@@ -6193,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
@@ -6201,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
@@ -6209,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
@@ -6217,7 +6214,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
@@ -6225,7 +6222,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
@@ -6233,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
@@ -6241,7 +6238,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
@@ -6249,7 +6246,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10">
@@ -6257,7 +6254,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
@@ -6265,7 +6262,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12">
@@ -6273,7 +6270,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
@@ -6281,7 +6278,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14">
@@ -6289,7 +6286,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15">
@@ -6297,7 +6294,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -57,12 +57,549 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland formations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural dry grasslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural - Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.43413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.43424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.90347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.92636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.92709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.90378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.59957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.59974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.59984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.90416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.46962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.18572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.18586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.18599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.45918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.45869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.45959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.64066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.56378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.56333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.56291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.64057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.88759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.88773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.88778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.11784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.11766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.81276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.81254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83274</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03301</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-08-25</t>
   </si>
   <si>
@@ -72,19 +609,10 @@
     <t xml:space="preserve">9.2875</t>
   </si>
   <si>
-    <t xml:space="preserve">natural_soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">6120</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grassland formations</t>
+    <t xml:space="preserve">DANKALK, Aggersund</t>
   </si>
   <si>
     <t xml:space="preserve">Natural grasslands</t>
@@ -93,9 +621,6 @@
     <t xml:space="preserve">Xeric sand calcareous grasslands</t>
   </si>
   <si>
-    <t xml:space="preserve">Natural - Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03302</t>
   </si>
   <si>
@@ -108,13 +633,7 @@
     <t xml:space="preserve">9.9316</t>
   </si>
   <si>
-    <t xml:space="preserve">6230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural dry grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
+    <t xml:space="preserve">Dall Hede</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03303</t>
@@ -132,6 +651,9 @@
     <t xml:space="preserve">2140</t>
   </si>
   <si>
+    <t xml:space="preserve">Stenbjerg Klitplantage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dunes</t>
   </si>
   <si>
@@ -153,6 +675,9 @@
     <t xml:space="preserve">9.5278</t>
   </si>
   <si>
+    <t xml:space="preserve">Tranum klitplantage</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03305</t>
   </si>
   <si>
@@ -168,6 +693,9 @@
     <t xml:space="preserve">4030</t>
   </si>
   <si>
+    <t xml:space="preserve">Kompedal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heath and scrub</t>
   </si>
   <si>
@@ -189,6 +717,9 @@
     <t xml:space="preserve">9.929</t>
   </si>
   <si>
+    <t xml:space="preserve">Dall hede</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03307</t>
   </si>
   <si>
@@ -201,6 +732,9 @@
     <t xml:space="preserve">9.6283</t>
   </si>
   <si>
+    <t xml:space="preserve">Ø Bakker</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03308</t>
   </si>
   <si>
@@ -219,6 +753,9 @@
     <t xml:space="preserve">10.0307</t>
   </si>
   <si>
+    <t xml:space="preserve">Hammer Bakker</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03310</t>
   </si>
   <si>
@@ -228,6 +765,9 @@
     <t xml:space="preserve">9.8842</t>
   </si>
   <si>
+    <t xml:space="preserve">Lønstrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03311</t>
   </si>
   <si>
@@ -246,9 +786,6 @@
     <t xml:space="preserve">MFD03313</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-15</t>
-  </si>
-  <si>
     <t xml:space="preserve">57.0672</t>
   </si>
   <si>
@@ -258,6 +795,9 @@
     <t xml:space="preserve">6210</t>
   </si>
   <si>
+    <t xml:space="preserve">Nørresundby</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calcareous grassland</t>
   </si>
   <si>
@@ -282,6 +822,9 @@
     <t xml:space="preserve">8.2681</t>
   </si>
   <si>
+    <t xml:space="preserve">Lodbjerg Klitplantage</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03317</t>
   </si>
   <si>
@@ -294,6 +837,9 @@
     <t xml:space="preserve">10.2627</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokkedal</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03318</t>
   </si>
   <si>
@@ -390,15 +936,15 @@
     <t xml:space="preserve">MFD03328</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-08-21</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.8283</t>
   </si>
   <si>
     <t xml:space="preserve">9.7986</t>
   </si>
   <si>
+    <t xml:space="preserve">Rold skov</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03329</t>
   </si>
   <si>
@@ -570,507 +1116,6 @@
     <t xml:space="preserve">56.9715</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.4341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.4343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8327</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03432</t>
   </si>
   <si>
@@ -1092,6 +1137,9 @@
     <t xml:space="preserve">9.4378</t>
   </si>
   <si>
+    <t xml:space="preserve">Frejstrup hede</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03438</t>
   </si>
   <si>
@@ -1102,6 +1150,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.2918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bjerget</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03439</t>
@@ -1635,19 +1686,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
@@ -1660,10 +1711,10 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -1671,25 +1722,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
@@ -1699,13 +1750,13 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -1713,25 +1764,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
@@ -1741,13 +1792,13 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -1755,25 +1806,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
@@ -1783,13 +1834,13 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
@@ -1797,25 +1848,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
@@ -1825,13 +1876,13 @@
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -1839,25 +1890,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
@@ -1867,13 +1918,13 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
@@ -1881,25 +1932,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
@@ -1909,13 +1960,13 @@
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
@@ -1923,25 +1974,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
@@ -1954,10 +2005,10 @@
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
@@ -1965,19 +2016,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -2007,25 +2058,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
@@ -2035,13 +2086,13 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
@@ -2049,19 +2100,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2091,25 +2142,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
@@ -2122,10 +2173,10 @@
         <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
@@ -2133,25 +2184,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
@@ -2164,10 +2215,10 @@
         <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
@@ -2175,25 +2226,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
@@ -2203,13 +2254,13 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
@@ -2217,25 +2268,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
@@ -2245,13 +2296,13 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
@@ -2259,25 +2310,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
@@ -2290,10 +2341,10 @@
         <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N18" t="s">
         <v>26</v>
@@ -2301,25 +2352,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
@@ -2332,10 +2383,10 @@
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N19" t="s">
         <v>26</v>
@@ -2343,25 +2394,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
@@ -2371,13 +2422,13 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N20" t="s">
         <v>26</v>
@@ -2385,25 +2436,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
@@ -2413,13 +2464,13 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N21" t="s">
         <v>26</v>
@@ -2427,25 +2478,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
@@ -2458,10 +2509,10 @@
         <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N22" t="s">
         <v>26</v>
@@ -2469,25 +2520,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
@@ -2500,10 +2551,10 @@
         <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N23" t="s">
         <v>26</v>
@@ -2511,25 +2562,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
@@ -2539,13 +2590,13 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
@@ -2553,19 +2604,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -2595,25 +2646,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
@@ -2623,13 +2674,13 @@
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N26" t="s">
         <v>26</v>
@@ -2637,25 +2688,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
@@ -2665,13 +2716,13 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N27" t="s">
         <v>26</v>
@@ -2679,25 +2730,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
@@ -2707,13 +2758,13 @@
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N28" t="s">
         <v>26</v>
@@ -2721,25 +2772,25 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
@@ -2752,10 +2803,10 @@
         <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N29" t="s">
         <v>26</v>
@@ -2763,25 +2814,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
@@ -2791,13 +2842,13 @@
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N30" t="s">
         <v>26</v>
@@ -2805,25 +2856,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
@@ -2836,10 +2887,10 @@
         <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N31" t="s">
         <v>26</v>
@@ -2847,25 +2898,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
@@ -2875,13 +2926,13 @@
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N32" t="s">
         <v>26</v>
@@ -2889,25 +2940,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2917,13 +2968,13 @@
         <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N33" t="s">
         <v>26</v>
@@ -2931,19 +2982,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -2973,25 +3024,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
@@ -3001,13 +3052,13 @@
         <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N35" t="s">
         <v>26</v>
@@ -3015,25 +3066,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
@@ -3043,13 +3094,13 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N36" t="s">
         <v>26</v>
@@ -3057,25 +3108,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
@@ -3085,13 +3136,13 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M37" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N37" t="s">
         <v>26</v>
@@ -3099,25 +3150,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
@@ -3130,10 +3181,10 @@
         <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N38" t="s">
         <v>26</v>
@@ -3141,25 +3192,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -3172,10 +3223,10 @@
         <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N39" t="s">
         <v>26</v>
@@ -3183,19 +3234,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -3225,25 +3276,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
@@ -3256,10 +3307,10 @@
         <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N41" t="s">
         <v>26</v>
@@ -3267,25 +3318,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
@@ -3295,13 +3346,13 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N42" t="s">
         <v>26</v>
@@ -3309,19 +3360,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -3351,19 +3402,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
@@ -3393,25 +3444,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -3421,13 +3472,13 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M45" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N45" t="s">
         <v>26</v>
@@ -3435,25 +3486,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -3466,10 +3517,10 @@
         <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M46" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N46" t="s">
         <v>26</v>
@@ -3477,25 +3528,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -3505,13 +3556,13 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N47" t="s">
         <v>26</v>
@@ -3519,25 +3570,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
@@ -3547,13 +3598,13 @@
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N48" t="s">
         <v>26</v>
@@ -3561,25 +3612,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
@@ -3592,10 +3643,10 @@
         <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N49" t="s">
         <v>26</v>
@@ -3603,25 +3654,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
@@ -3634,10 +3685,10 @@
         <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N50" t="s">
         <v>26</v>
@@ -3645,25 +3696,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
@@ -3676,10 +3727,10 @@
         <v>23</v>
       </c>
       <c r="L51" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N51" t="s">
         <v>26</v>
@@ -3687,25 +3738,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
@@ -3718,10 +3769,10 @@
         <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M52" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N52" t="s">
         <v>26</v>
@@ -3729,25 +3780,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
@@ -3760,10 +3811,10 @@
         <v>23</v>
       </c>
       <c r="L53" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N53" t="s">
         <v>26</v>
@@ -3771,25 +3822,25 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
@@ -3802,10 +3853,10 @@
         <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M54" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N54" t="s">
         <v>26</v>
@@ -3813,25 +3864,25 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
@@ -3844,10 +3895,10 @@
         <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N55" t="s">
         <v>26</v>
@@ -3855,27 +3906,29 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H56" t="s">
+        <v>199</v>
+      </c>
       <c r="I56" t="s">
         <v>21</v>
       </c>
@@ -3886,10 +3939,10 @@
         <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N56" t="s">
         <v>26</v>
@@ -3897,27 +3950,29 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>206</v>
+      </c>
       <c r="I57" t="s">
         <v>21</v>
       </c>
@@ -3928,10 +3983,10 @@
         <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M57" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N57" t="s">
         <v>26</v>
@@ -3939,41 +3994,43 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>211</v>
+      </c>
+      <c r="H58" t="s">
+        <v>212</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>213</v>
+      </c>
+      <c r="L58" t="s">
         <v>214</v>
       </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>196</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="M58" t="s">
         <v>215</v>
-      </c>
-      <c r="E58" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" t="s">
-        <v>23</v>
-      </c>
-      <c r="L58" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" t="s">
-        <v>33</v>
       </c>
       <c r="N58" t="s">
         <v>26</v>
@@ -3981,13 +4038,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
         <v>217</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>218</v>
@@ -3999,9 +4056,11 @@
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H59" t="s">
+        <v>220</v>
+      </c>
       <c r="I59" t="s">
         <v>21</v>
       </c>
@@ -4009,13 +4068,13 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L59" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M59" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N59" t="s">
         <v>26</v>
@@ -4023,27 +4082,29 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H60" t="s">
+        <v>226</v>
+      </c>
       <c r="I60" t="s">
         <v>21</v>
       </c>
@@ -4051,13 +4112,13 @@
         <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L60" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M60" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N60" t="s">
         <v>26</v>
@@ -4065,27 +4126,29 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
         <v>225</v>
       </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="2"/>
+      <c r="H61" t="s">
+        <v>234</v>
+      </c>
       <c r="I61" t="s">
         <v>21</v>
       </c>
@@ -4093,13 +4156,13 @@
         <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N61" t="s">
         <v>26</v>
@@ -4107,41 +4170,43 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>225</v>
+      </c>
+      <c r="H62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
         <v>227</v>
       </c>
-      <c r="E62" t="s">
+      <c r="L62" t="s">
         <v>228</v>
       </c>
-      <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" s="2"/>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" t="s">
-        <v>32</v>
-      </c>
       <c r="M62" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N62" t="s">
         <v>26</v>
@@ -4149,41 +4214,43 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>225</v>
+      </c>
+      <c r="H63" t="s">
+        <v>239</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>227</v>
+      </c>
+      <c r="L63" t="s">
+        <v>228</v>
+      </c>
+      <c r="M63" t="s">
         <v>229</v>
-      </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" t="s">
-        <v>230</v>
-      </c>
-      <c r="E63" t="s">
-        <v>231</v>
-      </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="I63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" t="s">
-        <v>33</v>
       </c>
       <c r="N63" t="s">
         <v>26</v>
@@ -4191,27 +4258,29 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>246</v>
+      </c>
       <c r="I64" t="s">
         <v>21</v>
       </c>
@@ -4222,10 +4291,10 @@
         <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N64" t="s">
         <v>26</v>
@@ -4233,27 +4302,29 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E65" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H65" t="s">
+        <v>250</v>
+      </c>
       <c r="I65" t="s">
         <v>21</v>
       </c>
@@ -4264,10 +4335,10 @@
         <v>23</v>
       </c>
       <c r="L65" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M65" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N65" t="s">
         <v>26</v>
@@ -4275,27 +4346,29 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H66" t="s">
+        <v>220</v>
+      </c>
       <c r="I66" t="s">
         <v>21</v>
       </c>
@@ -4303,13 +4376,13 @@
         <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L66" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M66" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N66" t="s">
         <v>26</v>
@@ -4317,27 +4390,29 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H67" t="s">
+        <v>199</v>
+      </c>
       <c r="I67" t="s">
         <v>21</v>
       </c>
@@ -4348,10 +4423,10 @@
         <v>23</v>
       </c>
       <c r="L67" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M67" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N67" t="s">
         <v>26</v>
@@ -4359,27 +4434,29 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H68" t="s">
+        <v>260</v>
+      </c>
       <c r="I68" t="s">
         <v>21</v>
       </c>
@@ -4390,10 +4467,10 @@
         <v>23</v>
       </c>
       <c r="L68" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M68" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N68" t="s">
         <v>26</v>
@@ -4401,27 +4478,29 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H69" t="s">
+        <v>260</v>
+      </c>
       <c r="I69" t="s">
         <v>21</v>
       </c>
@@ -4432,10 +4511,10 @@
         <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M69" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N69" t="s">
         <v>26</v>
@@ -4443,27 +4522,29 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H70" t="s">
+        <v>220</v>
+      </c>
       <c r="I70" t="s">
         <v>21</v>
       </c>
@@ -4471,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L70" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M70" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N70" t="s">
         <v>26</v>
@@ -4485,27 +4566,29 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H71" t="s">
+        <v>269</v>
+      </c>
       <c r="I71" t="s">
         <v>21</v>
       </c>
@@ -4513,13 +4596,13 @@
         <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L71" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M71" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N71" t="s">
         <v>26</v>
@@ -4527,27 +4610,29 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E72" t="s">
+        <v>273</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
         <v>259</v>
       </c>
-      <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" s="2"/>
+      <c r="H72" t="s">
+        <v>274</v>
+      </c>
       <c r="I72" t="s">
         <v>21</v>
       </c>
@@ -4558,10 +4643,10 @@
         <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M72" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N72" t="s">
         <v>26</v>
@@ -4569,41 +4654,43 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>259</v>
+      </c>
+      <c r="H73" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" t="s">
         <v>261</v>
-      </c>
-      <c r="E73" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" t="s">
-        <v>23</v>
-      </c>
-      <c r="L73" t="s">
-        <v>32</v>
-      </c>
-      <c r="M73" t="s">
-        <v>33</v>
       </c>
       <c r="N73" t="s">
         <v>26</v>
@@ -4611,27 +4698,29 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H74" t="s">
+        <v>226</v>
+      </c>
       <c r="I74" t="s">
         <v>21</v>
       </c>
@@ -4639,13 +4728,13 @@
         <v>22</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L74" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M74" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N74" t="s">
         <v>26</v>
@@ -4653,27 +4742,29 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H75" t="s">
+        <v>220</v>
+      </c>
       <c r="I75" t="s">
         <v>21</v>
       </c>
@@ -4681,13 +4772,13 @@
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L75" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M75" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s">
         <v>26</v>
@@ -4695,27 +4786,29 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>206</v>
+      </c>
       <c r="I76" t="s">
         <v>21</v>
       </c>
@@ -4726,10 +4819,10 @@
         <v>23</v>
       </c>
       <c r="L76" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M76" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N76" t="s">
         <v>26</v>
@@ -4737,27 +4830,29 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E77" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>206</v>
+      </c>
       <c r="I77" t="s">
         <v>21</v>
       </c>
@@ -4768,10 +4863,10 @@
         <v>23</v>
       </c>
       <c r="L77" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M77" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
         <v>26</v>
@@ -4779,27 +4874,29 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H78" t="s">
+        <v>239</v>
+      </c>
       <c r="I78" t="s">
         <v>21</v>
       </c>
@@ -4807,13 +4904,13 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L78" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M78" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="N78" t="s">
         <v>26</v>
@@ -4821,27 +4918,29 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
-      </c>
-      <c r="H79" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H79" t="s">
+        <v>250</v>
+      </c>
       <c r="I79" t="s">
         <v>21</v>
       </c>
@@ -4852,10 +4951,10 @@
         <v>23</v>
       </c>
       <c r="L79" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M79" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N79" t="s">
         <v>26</v>
@@ -4863,27 +4962,29 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H80" t="s">
+        <v>239</v>
+      </c>
       <c r="I80" t="s">
         <v>21</v>
       </c>
@@ -4891,13 +4992,13 @@
         <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M80" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="N80" t="s">
         <v>26</v>
@@ -4905,41 +5006,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>300</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" t="s">
+        <v>301</v>
+      </c>
+      <c r="E81" t="s">
+        <v>302</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s">
         <v>285</v>
       </c>
-      <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="H81" t="s">
+        <v>220</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" t="s">
+        <v>227</v>
+      </c>
+      <c r="L81" t="s">
+        <v>228</v>
+      </c>
+      <c r="M81" t="s">
         <v>286</v>
-      </c>
-      <c r="E81" t="s">
-        <v>287</v>
-      </c>
-      <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" s="2"/>
-      <c r="I81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" t="s">
-        <v>23</v>
-      </c>
-      <c r="L81" t="s">
-        <v>32</v>
-      </c>
-      <c r="M81" t="s">
-        <v>33</v>
       </c>
       <c r="N81" t="s">
         <v>26</v>
@@ -4947,27 +5050,29 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H82" t="s">
+        <v>220</v>
+      </c>
       <c r="I82" t="s">
         <v>21</v>
       </c>
@@ -4975,13 +5080,13 @@
         <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M82" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="N82" t="s">
         <v>26</v>
@@ -4989,27 +5094,29 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>307</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H83" t="s">
+        <v>309</v>
+      </c>
       <c r="I83" t="s">
         <v>21</v>
       </c>
@@ -5020,10 +5127,10 @@
         <v>23</v>
       </c>
       <c r="L83" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M83" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N83" t="s">
         <v>26</v>
@@ -5031,27 +5138,29 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H84" t="s">
+        <v>239</v>
+      </c>
       <c r="I84" t="s">
         <v>21</v>
       </c>
@@ -5059,13 +5168,13 @@
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L84" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M84" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N84" t="s">
         <v>26</v>
@@ -5073,27 +5182,29 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>246</v>
+      </c>
       <c r="I85" t="s">
         <v>21</v>
       </c>
@@ -5104,10 +5215,10 @@
         <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M85" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N85" t="s">
         <v>26</v>
@@ -5115,27 +5226,29 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H86" t="s">
+        <v>226</v>
+      </c>
       <c r="I86" t="s">
         <v>21</v>
       </c>
@@ -5143,13 +5256,13 @@
         <v>22</v>
       </c>
       <c r="K86" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L86" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M86" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="N86" t="s">
         <v>26</v>
@@ -5157,27 +5270,29 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E87" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H87" t="s">
+        <v>212</v>
+      </c>
       <c r="I87" t="s">
         <v>21</v>
       </c>
@@ -5185,13 +5300,13 @@
         <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L87" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M87" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N87" t="s">
         <v>26</v>
@@ -5199,27 +5314,29 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D88" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H88" t="s">
+        <v>274</v>
+      </c>
       <c r="I88" t="s">
         <v>21</v>
       </c>
@@ -5230,10 +5347,10 @@
         <v>23</v>
       </c>
       <c r="L88" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M88" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N88" t="s">
         <v>26</v>
@@ -5241,27 +5358,29 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D89" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H89" t="s">
+        <v>226</v>
+      </c>
       <c r="I89" t="s">
         <v>21</v>
       </c>
@@ -5269,13 +5388,13 @@
         <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L89" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M89" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="N89" t="s">
         <v>26</v>
@@ -5283,27 +5402,29 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="H90" t="s">
+        <v>226</v>
+      </c>
       <c r="I90" t="s">
         <v>21</v>
       </c>
@@ -5311,13 +5432,13 @@
         <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L90" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M90" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="N90" t="s">
         <v>26</v>
@@ -5325,27 +5446,29 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="E91" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H91" t="s">
+        <v>212</v>
+      </c>
       <c r="I91" t="s">
         <v>21</v>
       </c>
@@ -5353,13 +5476,13 @@
         <v>22</v>
       </c>
       <c r="K91" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L91" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M91" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N91" t="s">
         <v>26</v>
@@ -5367,27 +5490,29 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="E92" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H92" t="s">
+        <v>309</v>
+      </c>
       <c r="I92" t="s">
         <v>21</v>
       </c>
@@ -5398,10 +5523,10 @@
         <v>23</v>
       </c>
       <c r="L92" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M92" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N92" t="s">
         <v>26</v>
@@ -5409,27 +5534,29 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="D93" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H93" t="s">
+        <v>309</v>
+      </c>
       <c r="I93" t="s">
         <v>21</v>
       </c>
@@ -5440,10 +5567,10 @@
         <v>23</v>
       </c>
       <c r="L93" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M93" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N93" t="s">
         <v>26</v>
@@ -5451,27 +5578,29 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="E94" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H94" t="s">
+        <v>250</v>
+      </c>
       <c r="I94" t="s">
         <v>21</v>
       </c>
@@ -5482,10 +5611,10 @@
         <v>23</v>
       </c>
       <c r="L94" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M94" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N94" t="s">
         <v>26</v>
@@ -5493,27 +5622,29 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E95" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H95" t="s">
+        <v>274</v>
+      </c>
       <c r="I95" t="s">
         <v>21</v>
       </c>
@@ -5524,10 +5655,10 @@
         <v>23</v>
       </c>
       <c r="L95" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M95" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N95" t="s">
         <v>26</v>
@@ -5535,27 +5666,29 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="E96" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H96" t="s">
+        <v>269</v>
+      </c>
       <c r="I96" t="s">
         <v>21</v>
       </c>
@@ -5563,13 +5696,13 @@
         <v>22</v>
       </c>
       <c r="K96" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L96" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M96" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N96" t="s">
         <v>26</v>
@@ -5577,27 +5710,29 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="E97" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H97" t="s">
+        <v>199</v>
+      </c>
       <c r="I97" t="s">
         <v>21</v>
       </c>
@@ -5608,10 +5743,10 @@
         <v>23</v>
       </c>
       <c r="L97" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M97" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N97" t="s">
         <v>26</v>
@@ -5619,27 +5754,29 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H98" t="s">
+        <v>274</v>
+      </c>
       <c r="I98" t="s">
         <v>21</v>
       </c>
@@ -5650,10 +5787,10 @@
         <v>23</v>
       </c>
       <c r="L98" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="M98" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="N98" t="s">
         <v>26</v>
@@ -5661,27 +5798,29 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H99" t="s">
+        <v>269</v>
+      </c>
       <c r="I99" t="s">
         <v>21</v>
       </c>
@@ -5689,13 +5828,13 @@
         <v>22</v>
       </c>
       <c r="K99" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="M99" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N99" t="s">
         <v>26</v>
@@ -5703,27 +5842,29 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E100" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
-      </c>
-      <c r="H100" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H100" t="s">
+        <v>260</v>
+      </c>
       <c r="I100" t="s">
         <v>21</v>
       </c>
@@ -5734,10 +5875,10 @@
         <v>23</v>
       </c>
       <c r="L100" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M100" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="N100" t="s">
         <v>26</v>
@@ -5745,27 +5886,29 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="E101" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H101" t="s">
+        <v>226</v>
+      </c>
       <c r="I101" t="s">
         <v>21</v>
       </c>
@@ -5773,13 +5916,13 @@
         <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L101" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M101" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N101" t="s">
         <v>26</v>
@@ -5787,27 +5930,29 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
-      </c>
-      <c r="H102" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H102" t="s">
+        <v>234</v>
+      </c>
       <c r="I102" t="s">
         <v>21</v>
       </c>
@@ -5815,13 +5960,13 @@
         <v>22</v>
       </c>
       <c r="K102" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="L102" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M102" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N102" t="s">
         <v>26</v>
@@ -5829,27 +5974,29 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>80</v>
-      </c>
-      <c r="H103" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H103" t="s">
+        <v>234</v>
+      </c>
       <c r="I103" t="s">
         <v>21</v>
       </c>
@@ -5860,10 +6007,10 @@
         <v>23</v>
       </c>
       <c r="L103" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M103" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="N103" t="s">
         <v>26</v>
@@ -5871,27 +6018,29 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E104" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
-      </c>
-      <c r="H104" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>374</v>
+      </c>
       <c r="I104" t="s">
         <v>21</v>
       </c>
@@ -5902,10 +6051,10 @@
         <v>23</v>
       </c>
       <c r="L104" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M104" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N104" t="s">
         <v>26</v>
@@ -5913,27 +6062,29 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="E105" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H105" t="s">
+        <v>379</v>
+      </c>
       <c r="I105" t="s">
         <v>21</v>
       </c>
@@ -5944,10 +6095,10 @@
         <v>23</v>
       </c>
       <c r="L105" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="M105" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="N105" t="s">
         <v>26</v>
@@ -5955,27 +6106,29 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="E106" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H106" t="s">
+        <v>234</v>
+      </c>
       <c r="I106" t="s">
         <v>21</v>
       </c>
@@ -5986,10 +6139,10 @@
         <v>23</v>
       </c>
       <c r="L106" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M106" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="N106" t="s">
         <v>26</v>
@@ -5997,27 +6150,29 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D107" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E107" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H107" t="s">
+        <v>379</v>
+      </c>
       <c r="I107" t="s">
         <v>21</v>
       </c>
@@ -6028,10 +6183,10 @@
         <v>23</v>
       </c>
       <c r="L107" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="M107" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="N107" t="s">
         <v>26</v>
@@ -6039,27 +6194,29 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="E108" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>374</v>
+      </c>
       <c r="I108" t="s">
         <v>21</v>
       </c>
@@ -6070,10 +6227,10 @@
         <v>23</v>
       </c>
       <c r="L108" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M108" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N108" t="s">
         <v>26</v>
@@ -6081,27 +6238,29 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>389</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" t="s">
         <v>372</v>
       </c>
-      <c r="B109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" t="s">
-        <v>356</v>
-      </c>
-      <c r="D109" t="s">
-        <v>357</v>
-      </c>
       <c r="E109" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
-      </c>
-      <c r="H109" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>374</v>
+      </c>
       <c r="I109" t="s">
         <v>21</v>
       </c>
@@ -6112,10 +6271,10 @@
         <v>23</v>
       </c>
       <c r="L109" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M109" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N109" t="s">
         <v>26</v>
@@ -6123,27 +6282,29 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="E110" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>80</v>
-      </c>
-      <c r="H110" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H110" t="s">
+        <v>234</v>
+      </c>
       <c r="I110" t="s">
         <v>21</v>
       </c>
@@ -6154,10 +6315,10 @@
         <v>23</v>
       </c>
       <c r="L110" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M110" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="N110" t="s">
         <v>26</v>
@@ -6179,10 +6340,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
@@ -6190,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
@@ -6198,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4">
@@ -6206,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5">
@@ -6214,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
@@ -6222,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
@@ -6230,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
@@ -6238,7 +6399,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9">
@@ -6246,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10">
@@ -6254,7 +6415,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
@@ -6262,7 +6423,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12">
@@ -6270,7 +6431,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13">
@@ -6278,7 +6439,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14">
@@ -6286,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15">
@@ -6294,7 +6455,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -57,12 +57,198 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kompedal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperate heath and scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural - Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dall hede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø Bakker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranum klitplantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.4591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9715</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03348</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-09-17</t>
   </si>
   <si>
@@ -72,18 +258,9 @@
     <t xml:space="preserve">10.23519</t>
   </si>
   <si>
-    <t xml:space="preserve">natural_soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">6230</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grassland formations</t>
   </si>
   <si>
@@ -93,9 +270,6 @@
     <t xml:space="preserve">Species-rich Nardus upland grassland</t>
   </si>
   <si>
-    <t xml:space="preserve">Natural - Other</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03349</t>
   </si>
   <si>
@@ -675,72 +849,6 @@
     <t xml:space="preserve">9.5278</t>
   </si>
   <si>
-    <t xml:space="preserve">Tranum klitplantage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kompedal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heath and scrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperate heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dall hede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ø Bakker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6294</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03309</t>
   </si>
   <si>
@@ -849,33 +957,6 @@
     <t xml:space="preserve">10.2613</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wet heath</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03321</t>
   </si>
   <si>
@@ -888,15 +969,6 @@
     <t xml:space="preserve">56.9748</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6333</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03324</t>
   </si>
   <si>
@@ -906,33 +978,6 @@
     <t xml:space="preserve">9.8877</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5298</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03328</t>
   </si>
   <si>
@@ -945,15 +990,6 @@
     <t xml:space="preserve">Rold skov</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.4591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6308</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03330</t>
   </si>
   <si>
@@ -963,18 +999,6 @@
     <t xml:space="preserve">10.0304</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2462</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03332</t>
   </si>
   <si>
@@ -996,24 +1020,6 @@
     <t xml:space="preserve">10.2604</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD03334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2475</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03336</t>
   </si>
   <si>
@@ -1099,21 +1105,6 @@
   </si>
   <si>
     <t xml:space="preserve">9.8938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9715</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03432</t>
@@ -1270,7 +1261,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,6 +1271,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -1295,10 +1291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,35 +1655,33 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1700,41 +1695,39 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1742,41 +1735,39 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1784,41 +1775,39 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1826,251 +1815,239 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2"/>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="M11" t="s">
-        <v>25</v>
-      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -2078,155 +2055,147 @@
       <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" t="s">
         <v>24</v>
       </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2235,10 +2204,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -2246,41 +2215,39 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" t="s">
-        <v>25</v>
-      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -2288,4040 +2255,4006 @@
       <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" t="s">
         <v>24</v>
       </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
         <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M34" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M35" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M36" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M37" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
         <v>138</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>132</v>
-      </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M38" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M39" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M40" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M41" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M42" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M43" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
         <v>161</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>142</v>
-      </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M45" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M46" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M48" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M49" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M50" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M52" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M53" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M54" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M55" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" t="s">
-        <v>199</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H56" s="2"/>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L56" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="M56" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="N56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>206</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H57" s="2"/>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M57" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>211</v>
-      </c>
-      <c r="H58" t="s">
-        <v>212</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H58" s="2"/>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L58" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="M58" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>211</v>
-      </c>
-      <c r="H59" t="s">
-        <v>220</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H59" s="2"/>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L59" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="M59" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>225</v>
-      </c>
-      <c r="H60" t="s">
-        <v>226</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H60" s="2"/>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L60" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M60" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="N60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>225</v>
-      </c>
-      <c r="H61" t="s">
-        <v>234</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H61" s="2"/>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L61" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M61" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="N61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>225</v>
-      </c>
-      <c r="H62" t="s">
-        <v>239</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H62" s="2"/>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L62" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M62" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="N62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>225</v>
-      </c>
-      <c r="H63" t="s">
-        <v>239</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H63" s="2"/>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L63" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M63" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" t="s">
-        <v>246</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M64" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D65" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>198</v>
-      </c>
-      <c r="H65" t="s">
-        <v>250</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L65" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="M65" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="N65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>211</v>
-      </c>
-      <c r="H66" t="s">
-        <v>220</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L66" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="M66" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>198</v>
-      </c>
-      <c r="H67" t="s">
-        <v>199</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L67" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="M67" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="N67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
-      </c>
-      <c r="H68" t="s">
-        <v>260</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H68" s="2"/>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L68" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M68" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="N68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
-      </c>
-      <c r="H69" t="s">
-        <v>260</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H69" s="2"/>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M69" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="N69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>211</v>
-      </c>
-      <c r="H70" t="s">
-        <v>220</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H70" s="2"/>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L70" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="M70" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="D71" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="E71" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>211</v>
-      </c>
-      <c r="H71" t="s">
-        <v>269</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H71" s="2"/>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L71" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="M71" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
+        <v>256</v>
+      </c>
+      <c r="H72" t="s">
+        <v>257</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" t="s">
+        <v>82</v>
+      </c>
+      <c r="L72" t="s">
+        <v>258</v>
+      </c>
+      <c r="M72" t="s">
         <v>259</v>
       </c>
-      <c r="H72" t="s">
-        <v>274</v>
-      </c>
-      <c r="I72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" t="s">
-        <v>23</v>
-      </c>
-      <c r="L72" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" t="s">
-        <v>261</v>
-      </c>
       <c r="N72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M73" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
       <c r="N73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="H74" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="L74" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="M74" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="N74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D75" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E75" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="L75" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="M75" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L76" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M76" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="D77" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="H77" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K77" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="M77" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="N77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="D78" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H78" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="L78" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="M78" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L79" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="N79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80" t="s">
+        <v>294</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>295</v>
+      </c>
+      <c r="H80" t="s">
+        <v>296</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" t="s">
+        <v>82</v>
+      </c>
+      <c r="L80" t="s">
+        <v>83</v>
+      </c>
+      <c r="M80" t="s">
         <v>297</v>
       </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D80" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" t="s">
-        <v>299</v>
-      </c>
-      <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>285</v>
-      </c>
-      <c r="H80" t="s">
-        <v>239</v>
-      </c>
-      <c r="I80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" t="s">
-        <v>227</v>
-      </c>
-      <c r="L80" t="s">
-        <v>228</v>
-      </c>
-      <c r="M80" t="s">
-        <v>286</v>
-      </c>
       <c r="N80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="D81" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E81" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H81" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L81" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M81" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D82" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H82" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="L82" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="M82" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="L83" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="M83" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="N83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" t="s">
+        <v>308</v>
+      </c>
+      <c r="E84" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" t="s">
         <v>310</v>
       </c>
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" t="s">
-        <v>311</v>
-      </c>
-      <c r="E84" t="s">
-        <v>312</v>
-      </c>
-      <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>225</v>
-      </c>
-      <c r="H84" t="s">
-        <v>239</v>
-      </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L84" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M84" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="N84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" t="s">
         <v>313</v>
       </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" t="s">
-        <v>314</v>
-      </c>
-      <c r="E85" t="s">
-        <v>315</v>
-      </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="H85" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L85" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M85" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="N85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="E86" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L86" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M86" t="s">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="N86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L87" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="M87" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="H88" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L88" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="M88" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="N88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E89" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H89" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L89" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M89" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="D90" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E90" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M90" t="s">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="N90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="D91" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="H91" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="L91" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="M91" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="N91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
+        <v>256</v>
+      </c>
+      <c r="H92" t="s">
+        <v>310</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" t="s">
+        <v>82</v>
+      </c>
+      <c r="L92" t="s">
+        <v>258</v>
+      </c>
+      <c r="M92" t="s">
         <v>259</v>
       </c>
-      <c r="H92" t="s">
-        <v>309</v>
-      </c>
-      <c r="I92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" t="s">
-        <v>23</v>
-      </c>
-      <c r="L92" t="s">
-        <v>24</v>
-      </c>
-      <c r="M92" t="s">
-        <v>261</v>
-      </c>
       <c r="N92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E93" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K93" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="M93" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="N93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E94" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L94" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="M94" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="N94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E95" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="H95" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M95" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="N95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E96" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H96" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L96" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="M96" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="N96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="D97" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E97" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="H97" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L97" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="M97" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="N97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E98" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="H98" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="L98" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="M98" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="N98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D99" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E99" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H99" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="L99" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="M99" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="N99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="D100" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" t="s">
+        <v>256</v>
+      </c>
+      <c r="H100" t="s">
+        <v>310</v>
+      </c>
+      <c r="I100" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" t="s">
+        <v>82</v>
+      </c>
+      <c r="L100" t="s">
+        <v>258</v>
+      </c>
+      <c r="M100" t="s">
         <v>259</v>
       </c>
-      <c r="H100" t="s">
-        <v>260</v>
-      </c>
-      <c r="I100" t="s">
-        <v>21</v>
-      </c>
-      <c r="J100" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" t="s">
-        <v>23</v>
-      </c>
-      <c r="L100" t="s">
-        <v>24</v>
-      </c>
-      <c r="M100" t="s">
-        <v>261</v>
-      </c>
       <c r="N100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="D101" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="H101" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="I101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="L101" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="M101" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="N101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="D102" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="H102" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="L102" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="M102" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="N102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E103" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="H103" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="I103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L103" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M103" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="N103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>368</v>
+      </c>
+      <c r="D104" t="s">
+        <v>369</v>
+      </c>
+      <c r="E104" t="s">
         <v>370</v>
       </c>
-      <c r="B104" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s">
         <v>371</v>
       </c>
-      <c r="D104" t="s">
-        <v>372</v>
-      </c>
-      <c r="E104" t="s">
-        <v>373</v>
-      </c>
-      <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" t="s">
-        <v>374</v>
-      </c>
       <c r="I104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L104" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M104" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>372</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>373</v>
+      </c>
+      <c r="D105" t="s">
+        <v>374</v>
+      </c>
+      <c r="E105" t="s">
         <v>375</v>
       </c>
-      <c r="B105" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>256</v>
+      </c>
+      <c r="H105" t="s">
         <v>376</v>
       </c>
-      <c r="D105" t="s">
-        <v>377</v>
-      </c>
-      <c r="E105" t="s">
-        <v>378</v>
-      </c>
-      <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>198</v>
-      </c>
-      <c r="H105" t="s">
-        <v>379</v>
-      </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L105" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="M105" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="N105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D106" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E106" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="H106" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="I106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L106" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M106" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="N106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107" t="s">
+        <v>381</v>
+      </c>
+      <c r="E107" t="s">
+        <v>382</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>256</v>
+      </c>
+      <c r="H107" t="s">
         <v>376</v>
       </c>
-      <c r="D107" t="s">
-        <v>384</v>
-      </c>
-      <c r="E107" t="s">
-        <v>385</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>198</v>
-      </c>
-      <c r="H107" t="s">
-        <v>379</v>
-      </c>
       <c r="I107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L107" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="M107" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="N107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D108" t="s">
+        <v>384</v>
+      </c>
+      <c r="E108" t="s">
+        <v>385</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s">
         <v>371</v>
       </c>
-      <c r="D108" t="s">
-        <v>387</v>
-      </c>
-      <c r="E108" t="s">
-        <v>388</v>
-      </c>
-      <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" t="s">
-        <v>374</v>
-      </c>
       <c r="I108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L108" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M108" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
+        <v>368</v>
+      </c>
+      <c r="D109" t="s">
+        <v>369</v>
+      </c>
+      <c r="E109" t="s">
+        <v>387</v>
+      </c>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s">
         <v>371</v>
       </c>
-      <c r="D109" t="s">
-        <v>372</v>
-      </c>
-      <c r="E109" t="s">
-        <v>390</v>
-      </c>
-      <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" t="s">
-        <v>374</v>
-      </c>
       <c r="I109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K109" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L109" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M109" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D110" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E110" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="H110" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="I110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K110" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L110" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="M110" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="N110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6340,10 +6273,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
@@ -6351,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
@@ -6359,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
@@ -6367,7 +6300,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
@@ -6375,7 +6308,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
@@ -6383,7 +6316,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7">
@@ -6391,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
@@ -6399,7 +6332,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9">
@@ -6407,7 +6340,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -6415,7 +6348,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11">
@@ -6423,7 +6356,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12">
@@ -6431,7 +6364,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13">
@@ -6439,7 +6372,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
@@ -6447,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15">
@@ -6455,7 +6388,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -57,12 +57,630 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland formations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural dry grasslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural - Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.30128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.22777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.31295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.43413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.43424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.40933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.90347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.92636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.92709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.38898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.90378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.59957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.59974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.59984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.90416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.46962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.18572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.18586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.18599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.45918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.45869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.45959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.64066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.56378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.56333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.21475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.56291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.39356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.47035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.64057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.88759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.88773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.88778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.11784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.1179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.11766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.81276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.81254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANKALK, Aggersund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural grasslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xeric sand calcareous grasslands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dall Hede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenbjerg Klitplantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea dunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decalcified Empetrum dunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranum klitplantage</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03305</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-08-07</t>
   </si>
   <si>
@@ -72,25 +690,19 @@
     <t xml:space="preserve">9.2693</t>
   </si>
   <si>
-    <t xml:space="preserve">natural_soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4030</t>
+    <t xml:space="preserve">4130</t>
   </si>
   <si>
     <t xml:space="preserve">Kompedal</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
-  </si>
-  <si>
     <t xml:space="preserve">Temperate heath and scrub</t>
   </si>
   <si>
-    <t xml:space="preserve">Natural - Other</t>
+    <t xml:space="preserve">Temperate heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry heath</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03306</t>
@@ -129,6 +741,114 @@
     <t xml:space="preserve">9.6294</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer Bakker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lønstrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nørresundby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcareous grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodbjerg Klitplantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokkedal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2613</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03319</t>
   </si>
   <si>
@@ -150,10 +870,22 @@
     <t xml:space="preserve">9.5293</t>
   </si>
   <si>
-    <t xml:space="preserve">4010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranum klitplantage</t>
+    <t xml:space="preserve">4110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wet heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9748</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03323</t>
@@ -165,6 +897,15 @@
     <t xml:space="preserve">9.6333</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8877</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03325</t>
   </si>
   <si>
@@ -192,6 +933,18 @@
     <t xml:space="preserve">9.5298</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rold skov</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03329</t>
   </si>
   <si>
@@ -201,6 +954,15 @@
     <t xml:space="preserve">9.6308</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0304</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03331</t>
   </si>
   <si>
@@ -213,6 +975,27 @@
     <t xml:space="preserve">9.2462</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03334</t>
   </si>
   <si>
@@ -231,6 +1014,93 @@
     <t xml:space="preserve">9.2475</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD03336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD03345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8938</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03346</t>
   </si>
   <si>
@@ -244,867 +1114,6 @@
   </si>
   <si>
     <t xml:space="preserve">56.9715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.23519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grassland formations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural dry grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species-rich Nardus upland grassland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.30536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.30517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.31486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.31463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.31418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.30106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.30128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.22777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.31329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.31295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.38387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.47473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.38427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.47554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.38398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.47529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.43413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.40868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.43424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.40979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.4343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.40933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.90347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.92636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.92709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.38898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.90378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.39018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.47228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.59957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.59974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.59984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.90416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.39377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.46962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.18572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.18586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.18599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.45918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.45869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.45959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.64066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.21469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.56378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.21494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.56333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.21475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.56291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.39363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.47001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.39356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.47035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.64057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.88759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.88773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.88778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.11784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.1179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.11766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.81276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.81254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANKALK, Aggersund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xeric sand calcareous grasslands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dall Hede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenbjerg Klitplantage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decalcified Empetrum dunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hammer Bakker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.4974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønstrup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nørresundby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcareous grassland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lodbjerg Klitplantage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokkedal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.4984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rold skov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.4985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD03345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8938</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03432</t>
@@ -1261,7 +1270,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,11 +1280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -1291,11 +1295,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1655,33 +1658,35 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1695,39 +1700,41 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1735,39 +1742,41 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1775,39 +1784,41 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1815,239 +1826,251 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -2055,147 +2078,155 @@
       <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2204,10 +2235,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -2215,39 +2246,41 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -2255,4006 +2288,4040 @@
       <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="D23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M33" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M37" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M39" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
         <v>148</v>
       </c>
-      <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>153</v>
-      </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M45" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M46" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
         <v>180</v>
       </c>
-      <c r="D51" t="s">
-        <v>187</v>
-      </c>
       <c r="E51" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L51" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M52" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L53" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" t="s">
         <v>190</v>
       </c>
-      <c r="D54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" t="s">
-        <v>198</v>
-      </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M54" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H56" t="s">
+        <v>199</v>
+      </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="M56" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="N56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
         <v>204</v>
       </c>
-      <c r="D57" t="s">
-        <v>208</v>
-      </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>206</v>
+      </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M57" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
         <v>210</v>
       </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>204</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
         <v>211</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>212</v>
       </c>
-      <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="2"/>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="L58" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M58" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="N58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" t="s">
+        <v>220</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
         <v>213</v>
       </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="L59" t="s">
         <v>214</v>
       </c>
-      <c r="E59" t="s">
+      <c r="M59" t="s">
         <v>215</v>
       </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" t="s">
-        <v>82</v>
-      </c>
-      <c r="L59" t="s">
-        <v>83</v>
-      </c>
-      <c r="M59" t="s">
-        <v>84</v>
-      </c>
       <c r="N59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H60" t="s">
+        <v>226</v>
+      </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L60" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M60" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="N60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H61" t="s">
+        <v>234</v>
+      </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="N61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="H62" t="s">
+        <v>239</v>
+      </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M62" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="N62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
         <v>225</v>
       </c>
-      <c r="D63" t="s">
-        <v>226</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
+        <v>239</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
         <v>227</v>
       </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="I63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" t="s">
-        <v>82</v>
-      </c>
       <c r="L63" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M63" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="N63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>246</v>
+      </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H65" t="s">
+        <v>250</v>
+      </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L65" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="M65" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="N65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H66" t="s">
+        <v>220</v>
+      </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="L66" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M66" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="N66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H67" t="s">
+        <v>199</v>
+      </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L67" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="M67" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="N67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H68" t="s">
+        <v>260</v>
+      </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L68" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M68" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="N68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="H69" t="s">
+        <v>260</v>
+      </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M69" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="N69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H70" t="s">
+        <v>220</v>
+      </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="L70" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M70" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="N70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H71" t="s">
+        <v>269</v>
+      </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="L71" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M71" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="N71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H72" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K72" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="M72" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>259</v>
+      </c>
+      <c r="H73" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" t="s">
         <v>261</v>
       </c>
-      <c r="D73" t="s">
-        <v>262</v>
-      </c>
-      <c r="E73" t="s">
-        <v>263</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s">
-        <v>264</v>
-      </c>
-      <c r="I73" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" t="s">
-        <v>82</v>
-      </c>
-      <c r="L73" t="s">
-        <v>83</v>
-      </c>
-      <c r="M73" t="s">
-        <v>84</v>
-      </c>
       <c r="N73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K74" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L74" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M74" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="N74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D75" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E75" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L75" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M75" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L76" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M76" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K77" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L77" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="M77" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="N77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E78" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L78" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M78" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="N78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E79" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L79" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="M79" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="N79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H80" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M80" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="N80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H81" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L81" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M81" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="N81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M82" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="N82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H83" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="L83" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="M83" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="N83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="H84" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L84" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M84" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="N84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K85" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M85" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="N85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="H86" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K86" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L86" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M86" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="N86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="H87" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="L87" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M87" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="N87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="D88" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E88" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="H88" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K88" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L88" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="M88" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="N88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="D89" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H89" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L89" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M89" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="N89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="H90" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L90" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M90" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="N90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E91" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="H91" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K91" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="L91" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="M91" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="N91" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E92" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K92" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L92" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="M92" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="D93" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E93" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H93" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K93" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="L93" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="M93" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="N93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E94" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="H94" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L94" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="M94" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="N94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E95" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H95" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L95" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M95" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="N95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E96" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="H96" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="I96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K96" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="L96" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="M96" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="N96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="D97" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E97" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="H97" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K97" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L97" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="M97" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="N97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="H98" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K98" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="L98" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="M98" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="N98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="H99" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K99" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="M99" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="N99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E100" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H100" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K100" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L100" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="M100" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E101" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="H101" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L101" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M101" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="N101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="H102" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K102" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="L102" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="M102" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="N102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E103" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H103" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L103" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M103" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="N103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E104" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K104" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L104" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M104" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E105" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="H105" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K105" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L105" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="M105" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="N105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E106" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H106" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K106" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L106" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M106" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="N106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D107" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E107" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="H107" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K107" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L107" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="M107" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="N107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D108" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E108" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K108" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L108" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M108" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E109" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K109" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L109" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M109" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="N109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E110" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H110" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K110" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L110" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M110" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="N110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6273,10 +6340,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
@@ -6284,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
@@ -6292,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4">
@@ -6300,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5">
@@ -6308,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
@@ -6316,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
@@ -6324,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
@@ -6332,7 +6399,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9">
@@ -6340,7 +6407,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10">
@@ -6348,7 +6415,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
@@ -6356,7 +6423,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12">
@@ -6364,7 +6431,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13">
@@ -6372,7 +6439,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14">
@@ -6380,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15">
@@ -6388,7 +6455,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
